--- a/肇庆之信遨游动力电池项目IP分配表.xlsx
+++ b/肇庆之信遨游动力电池项目IP分配表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="127">
   <si>
     <t>IP地址划分</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -442,14 +442,30 @@
   </si>
   <si>
     <t>常温库库后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.1.245</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.1.246</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二封间前端触摸屏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二封间后端触摸屏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -514,7 +530,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -588,7 +604,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -623,7 +638,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -799,23 +813,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="33.75" customWidth="1"/>
     <col min="2" max="2" width="16.75" customWidth="1"/>
     <col min="3" max="3" width="15.625" customWidth="1"/>
     <col min="4" max="4" width="25.875" customWidth="1"/>
     <col min="5" max="5" width="22.375" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -832,7 +847,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -840,7 +855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -857,7 +872,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="3" t="s">
@@ -870,7 +885,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="3" t="s">
@@ -883,7 +898,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="3" t="s">
@@ -896,7 +911,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="3" t="s">
@@ -909,7 +924,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="3" t="s">
@@ -922,7 +937,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="3" t="s">
@@ -935,7 +950,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="3" t="s">
@@ -948,7 +963,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="3" t="s">
@@ -961,7 +976,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="3" t="s">
@@ -974,7 +989,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -991,7 +1006,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="B14" s="4"/>
       <c r="C14" s="3" t="s">
         <v>39</v>
@@ -1001,7 +1016,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5">
       <c r="B15" s="4"/>
       <c r="C15" s="3" t="s">
         <v>40</v>
@@ -1011,7 +1026,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="B16" s="4" t="s">
         <v>71</v>
       </c>
@@ -1025,7 +1040,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:5">
       <c r="B17" s="4"/>
       <c r="C17" s="3" t="s">
         <v>39</v>
@@ -1035,7 +1050,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:5">
       <c r="B18" s="4"/>
       <c r="C18" s="3" t="s">
         <v>40</v>
@@ -1045,7 +1060,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:5">
       <c r="B19" s="4" t="s">
         <v>72</v>
       </c>
@@ -1057,7 +1072,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:5">
       <c r="B20" s="4"/>
       <c r="C20" s="3" t="s">
         <v>39</v>
@@ -1067,7 +1082,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:5">
       <c r="B21" s="4"/>
       <c r="C21" s="3" t="s">
         <v>40</v>
@@ -1077,7 +1092,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:5">
       <c r="B22" s="4" t="s">
         <v>73</v>
       </c>
@@ -1089,7 +1104,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:5">
       <c r="B23" s="4"/>
       <c r="C23" s="3" t="s">
         <v>39</v>
@@ -1099,7 +1114,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:5">
       <c r="B24" s="4"/>
       <c r="C24" s="3" t="s">
         <v>40</v>
@@ -1109,7 +1124,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:5">
       <c r="B25" s="4" t="s">
         <v>75</v>
       </c>
@@ -1123,7 +1138,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:5">
       <c r="B26" s="4"/>
       <c r="C26" s="3" t="s">
         <v>39</v>
@@ -1133,7 +1148,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:5">
       <c r="B27" s="4"/>
       <c r="C27" s="3" t="s">
         <v>40</v>
@@ -1143,7 +1158,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:5">
       <c r="B28" s="4" t="s">
         <v>76</v>
       </c>
@@ -1155,7 +1170,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:5">
       <c r="B29" s="4"/>
       <c r="C29" s="3" t="s">
         <v>39</v>
@@ -1165,7 +1180,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:5">
       <c r="B30" s="4"/>
       <c r="C30" s="3" t="s">
         <v>40</v>
@@ -1175,7 +1190,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:5">
       <c r="B31" s="4" t="s">
         <v>78</v>
       </c>
@@ -1189,7 +1204,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:5">
       <c r="B32" s="4"/>
       <c r="C32" s="3" t="s">
         <v>39</v>
@@ -1199,7 +1214,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:6">
       <c r="B33" s="4"/>
       <c r="C33" s="3" t="s">
         <v>40</v>
@@ -1209,7 +1224,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:6">
       <c r="B34" s="4" t="s">
         <v>79</v>
       </c>
@@ -1221,7 +1236,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:6">
       <c r="B35" s="4"/>
       <c r="C35" s="3" t="s">
         <v>39</v>
@@ -1231,7 +1246,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:6">
       <c r="B36" s="4"/>
       <c r="C36" s="3" t="s">
         <v>40</v>
@@ -1241,7 +1256,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:6">
       <c r="B37" s="4" t="s">
         <v>80</v>
       </c>
@@ -1253,7 +1268,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:6">
       <c r="B38" s="4"/>
       <c r="C38" s="3" t="s">
         <v>39</v>
@@ -1263,7 +1278,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:6">
       <c r="B39" s="4"/>
       <c r="C39" s="3" t="s">
         <v>40</v>
@@ -1273,7 +1288,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:6">
       <c r="B40" s="4" t="s">
         <v>95</v>
       </c>
@@ -1287,7 +1302,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:6">
       <c r="B41" s="4"/>
       <c r="C41" s="3" t="s">
         <v>39</v>
@@ -1297,7 +1312,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:6">
       <c r="B42" s="4" t="s">
         <v>96</v>
       </c>
@@ -1310,8 +1325,11 @@
       <c r="E42" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="F42" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
       <c r="B43" s="4"/>
       <c r="C43" s="3" t="s">
         <v>39</v>
@@ -1320,8 +1338,11 @@
       <c r="E43" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="F43" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6">
       <c r="B44" s="4" t="s">
         <v>97</v>
       </c>
@@ -1334,8 +1355,11 @@
       <c r="E44" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="F44" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
       <c r="B45" s="4"/>
       <c r="C45" s="3" t="s">
         <v>39</v>
@@ -1344,8 +1368,11 @@
       <c r="E45" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="F45" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6">
       <c r="B46" s="4" t="s">
         <v>98</v>
       </c>
@@ -1359,7 +1386,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:6">
       <c r="B47" s="4"/>
       <c r="C47" s="3" t="s">
         <v>39</v>
@@ -1369,7 +1396,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:6">
       <c r="B48" s="4" t="s">
         <v>99</v>
       </c>
@@ -1383,7 +1410,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:5">
       <c r="B49" s="4"/>
       <c r="C49" s="3" t="s">
         <v>39</v>
@@ -1393,7 +1420,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:5" ht="18" customHeight="1">
       <c r="B50" s="3" t="s">
         <v>105</v>
       </c>
@@ -1407,7 +1434,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:5" ht="21" customHeight="1">
       <c r="B51" s="3" t="s">
         <v>106</v>
       </c>
@@ -1419,7 +1446,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="52" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:5" ht="20.25" customHeight="1">
       <c r="B52" s="3" t="s">
         <v>113</v>
       </c>
@@ -1433,7 +1460,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:5" ht="18.75" customHeight="1">
       <c r="B53" s="3" t="s">
         <v>114</v>
       </c>
@@ -1447,7 +1474,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="54" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:5" ht="24" customHeight="1">
       <c r="B54" s="3" t="s">
         <v>115</v>
       </c>
@@ -1461,7 +1488,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="55" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:5" ht="18" customHeight="1">
       <c r="B55" s="3" t="s">
         <v>116</v>
       </c>
@@ -1475,7 +1502,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="56" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:5" ht="21" customHeight="1">
       <c r="B56" s="3" t="s">
         <v>117</v>
       </c>
@@ -1491,6 +1518,23 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B3:B12"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="D16:D24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="D25:D30"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="D31:D39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B31:B33"/>
     <mergeCell ref="D50:D51"/>
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="B48:B49"/>
@@ -1499,24 +1543,7 @@
     <mergeCell ref="D44:D45"/>
     <mergeCell ref="D46:D47"/>
     <mergeCell ref="D48:D49"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="D31:D39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
     <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="D16:D24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="D25:D30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B3:B12"/>
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B19:B21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1525,12 +1552,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1538,12 +1565,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/肇庆之信遨游动力电池项目IP分配表.xlsx
+++ b/肇庆之信遨游动力电池项目IP分配表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="133">
   <si>
     <t>IP地址划分</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -458,14 +458,38 @@
   </si>
   <si>
     <t>二封间后端触摸屏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二封</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>erfeng2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.126.200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二封RGV接收端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.126.201</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -481,12 +505,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -501,7 +531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -515,6 +545,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -530,7 +564,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -604,6 +638,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -638,6 +673,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -813,14 +849,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="33.75" customWidth="1"/>
     <col min="2" max="2" width="16.75" customWidth="1"/>
@@ -830,7 +866,7 @@
     <col min="6" max="6" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -847,7 +883,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -855,11 +891,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -872,9 +908,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
@@ -885,9 +921,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
       <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
@@ -898,9 +934,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
       <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
@@ -911,9 +947,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
@@ -924,9 +960,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
@@ -937,9 +973,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
       <c r="C9" s="3" t="s">
         <v>12</v>
       </c>
@@ -950,9 +986,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="3" t="s">
         <v>13</v>
       </c>
@@ -963,9 +999,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
       <c r="C11" s="3" t="s">
         <v>14</v>
       </c>
@@ -976,9 +1012,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
       <c r="C12" s="3" t="s">
         <v>15</v>
       </c>
@@ -989,337 +1025,337 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="5" t="s">
         <v>41</v>
       </c>
       <c r="E13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="B14" s="4"/>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B14" s="5"/>
       <c r="C14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="5"/>
       <c r="E14" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="B15" s="4"/>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B15" s="5"/>
       <c r="C15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="D15" s="5"/>
       <c r="E15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="B16" s="4" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B16" s="5" t="s">
         <v>71</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>74</v>
       </c>
       <c r="E16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="4"/>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B17" s="5"/>
       <c r="C17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="5"/>
       <c r="E17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="4"/>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B18" s="5"/>
       <c r="C18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="5"/>
       <c r="E18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="4" t="s">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B19" s="5" t="s">
         <v>72</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="5"/>
       <c r="E19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="4"/>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B20" s="5"/>
       <c r="C20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="4"/>
+      <c r="D20" s="5"/>
       <c r="E20" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="4"/>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B21" s="5"/>
       <c r="C21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="4"/>
+      <c r="D21" s="5"/>
       <c r="E21" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="4" t="s">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B22" s="5" t="s">
         <v>73</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="4"/>
+      <c r="D22" s="5"/>
       <c r="E22" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="4"/>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B23" s="5"/>
       <c r="C23" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="4"/>
+      <c r="D23" s="5"/>
       <c r="E23" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="4"/>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B24" s="5"/>
       <c r="C24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="4"/>
+      <c r="D24" s="5"/>
       <c r="E24" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="4" t="s">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B25" s="5" t="s">
         <v>75</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="5" t="s">
         <v>77</v>
       </c>
       <c r="E25" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="2:5">
-      <c r="B26" s="4"/>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B26" s="5"/>
       <c r="C26" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="4"/>
+      <c r="D26" s="5"/>
       <c r="E26" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="2:5">
-      <c r="B27" s="4"/>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B27" s="5"/>
       <c r="C27" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="4"/>
+      <c r="D27" s="5"/>
       <c r="E27" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="2:5">
-      <c r="B28" s="4" t="s">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B28" s="5" t="s">
         <v>76</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="4"/>
+      <c r="D28" s="5"/>
       <c r="E28" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="2:5">
-      <c r="B29" s="4"/>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B29" s="5"/>
       <c r="C29" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="4"/>
+      <c r="D29" s="5"/>
       <c r="E29" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="2:5">
-      <c r="B30" s="4"/>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B30" s="5"/>
       <c r="C30" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="4"/>
+      <c r="D30" s="5"/>
       <c r="E30" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="2:5">
-      <c r="B31" s="4" t="s">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B31" s="5" t="s">
         <v>78</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="5" t="s">
         <v>81</v>
       </c>
       <c r="E31" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="2:5">
-      <c r="B32" s="4"/>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B32" s="5"/>
       <c r="C32" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="4"/>
+      <c r="D32" s="5"/>
       <c r="E32" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="4"/>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B33" s="5"/>
       <c r="C33" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="4"/>
+      <c r="D33" s="5"/>
       <c r="E33" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="2:6">
-      <c r="B34" s="4" t="s">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B34" s="5" t="s">
         <v>79</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="4"/>
+      <c r="D34" s="5"/>
       <c r="E34" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="4"/>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B35" s="5"/>
       <c r="C35" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="4"/>
+      <c r="D35" s="5"/>
       <c r="E35" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="4"/>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B36" s="5"/>
       <c r="C36" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D36" s="4"/>
+      <c r="D36" s="5"/>
       <c r="E36" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="4" t="s">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B37" s="5" t="s">
         <v>80</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D37" s="4"/>
+      <c r="D37" s="5"/>
       <c r="E37" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="4"/>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B38" s="5"/>
       <c r="C38" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="4"/>
+      <c r="D38" s="5"/>
       <c r="E38" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="2:6">
-      <c r="B39" s="4"/>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B39" s="5"/>
       <c r="C39" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D39" s="4"/>
+      <c r="D39" s="5"/>
       <c r="E39" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="2:6">
-      <c r="B40" s="4" t="s">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B40" s="5" t="s">
         <v>95</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="5" t="s">
         <v>100</v>
       </c>
       <c r="E40" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="2:6">
-      <c r="B41" s="4"/>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B41" s="5"/>
       <c r="C41" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="4"/>
+      <c r="D41" s="5"/>
       <c r="E41" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="2:6">
-      <c r="B42" s="4" t="s">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B42" s="5" t="s">
         <v>96</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E42" t="s">
@@ -1329,12 +1365,12 @@
         <v>125</v>
       </c>
     </row>
-    <row r="43" spans="2:6">
-      <c r="B43" s="4"/>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B43" s="5"/>
       <c r="C43" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D43" s="4"/>
+      <c r="D43" s="5"/>
       <c r="E43" t="s">
         <v>86</v>
       </c>
@@ -1342,14 +1378,14 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="2:6">
-      <c r="B44" s="4" t="s">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B44" s="5" t="s">
         <v>97</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="5" t="s">
         <v>102</v>
       </c>
       <c r="E44" t="s">
@@ -1359,12 +1395,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="45" spans="2:6">
-      <c r="B45" s="4"/>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B45" s="5"/>
       <c r="C45" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D45" s="4"/>
+      <c r="D45" s="5"/>
       <c r="E45" t="s">
         <v>88</v>
       </c>
@@ -1372,81 +1408,81 @@
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="2:6">
-      <c r="B46" s="4" t="s">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B46" s="5" t="s">
         <v>98</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="5" t="s">
         <v>103</v>
       </c>
       <c r="E46" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="2:6">
-      <c r="B47" s="4"/>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B47" s="5"/>
       <c r="C47" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D47" s="4"/>
+      <c r="D47" s="5"/>
       <c r="E47" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="2:6">
-      <c r="B48" s="4" t="s">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B48" s="5" t="s">
         <v>99</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="5" t="s">
         <v>104</v>
       </c>
       <c r="E48" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="2:5">
-      <c r="B49" s="4"/>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B49" s="5"/>
       <c r="C49" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D49" s="4"/>
+      <c r="D49" s="5"/>
       <c r="E49" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="2:5" ht="18" customHeight="1">
+    <row r="50" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="3" t="s">
         <v>105</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E50" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="2:5" ht="21" customHeight="1">
+    <row r="51" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="3" t="s">
         <v>106</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D51" s="4"/>
+      <c r="D51" s="5"/>
       <c r="E51" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="52" spans="2:5" ht="20.25" customHeight="1">
+    <row r="52" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="3" t="s">
         <v>113</v>
       </c>
@@ -1460,7 +1496,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="2:5" ht="18.75" customHeight="1">
+    <row r="53" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
         <v>114</v>
       </c>
@@ -1474,7 +1510,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="54" spans="2:5" ht="24" customHeight="1">
+    <row r="54" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="3" t="s">
         <v>115</v>
       </c>
@@ -1488,7 +1524,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="55" spans="2:5" ht="18" customHeight="1">
+    <row r="55" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="3" t="s">
         <v>116</v>
       </c>
@@ -1502,7 +1538,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="56" spans="2:5" ht="21" customHeight="1">
+    <row r="56" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="3" t="s">
         <v>117</v>
       </c>
@@ -1516,25 +1552,31 @@
         <v>112</v>
       </c>
     </row>
+    <row r="57" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A58" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B59" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B3:B12"/>
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="D16:D24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="D25:D30"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="D31:D39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B31:B33"/>
     <mergeCell ref="D50:D51"/>
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="B48:B49"/>
@@ -1544,6 +1586,23 @@
     <mergeCell ref="D46:D47"/>
     <mergeCell ref="D48:D49"/>
     <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="D31:D39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="D16:D24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="D25:D30"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B3:B12"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="B16:B18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1552,12 +1611,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1565,12 +1624,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/肇庆之信遨游动力电池项目IP分配表.xlsx
+++ b/肇庆之信遨游动力电池项目IP分配表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="135">
   <si>
     <t>IP地址划分</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -482,6 +482,14 @@
   </si>
   <si>
     <t>192.168.126.201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注液RGV接收端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.127.232</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -531,7 +539,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -549,6 +557,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -850,10 +861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -892,10 +903,10 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -909,8 +920,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
@@ -922,8 +933,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
@@ -935,8 +946,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
@@ -948,8 +959,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
@@ -961,8 +972,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
@@ -974,8 +985,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
       <c r="C9" s="3" t="s">
         <v>12</v>
       </c>
@@ -987,8 +998,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
       <c r="C10" s="3" t="s">
         <v>13</v>
       </c>
@@ -1000,8 +1011,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="3" t="s">
         <v>14</v>
       </c>
@@ -1013,8 +1024,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
       <c r="C12" s="3" t="s">
         <v>15</v>
       </c>
@@ -1029,13 +1040,13 @@
       <c r="A13" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="7" t="s">
         <v>41</v>
       </c>
       <c r="E13" t="s">
@@ -1043,33 +1054,33 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B14" s="5"/>
+      <c r="B14" s="7"/>
       <c r="C14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="7"/>
       <c r="E14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B15" s="5"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="7"/>
       <c r="E15" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="7" t="s">
         <v>71</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="7" t="s">
         <v>74</v>
       </c>
       <c r="E16" t="s">
@@ -1077,97 +1088,97 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B17" s="5"/>
+      <c r="B17" s="7"/>
       <c r="C17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="7"/>
       <c r="E17" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B18" s="5"/>
+      <c r="B18" s="7"/>
       <c r="C18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="5"/>
+      <c r="D18" s="7"/>
       <c r="E18" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="7" t="s">
         <v>72</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="5"/>
+      <c r="D19" s="7"/>
       <c r="E19" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B20" s="5"/>
+      <c r="B20" s="7"/>
       <c r="C20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="5"/>
+      <c r="D20" s="7"/>
       <c r="E20" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B21" s="5"/>
+      <c r="B21" s="7"/>
       <c r="C21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="5"/>
+      <c r="D21" s="7"/>
       <c r="E21" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="5"/>
+      <c r="D22" s="7"/>
       <c r="E22" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B23" s="5"/>
+      <c r="B23" s="7"/>
       <c r="C23" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="5"/>
+      <c r="D23" s="7"/>
       <c r="E23" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B24" s="5"/>
+      <c r="B24" s="7"/>
       <c r="C24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="5"/>
+      <c r="D24" s="7"/>
       <c r="E24" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="7" t="s">
         <v>75</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="7" t="s">
         <v>77</v>
       </c>
       <c r="E25" t="s">
@@ -1175,65 +1186,65 @@
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B26" s="5"/>
+      <c r="B26" s="7"/>
       <c r="C26" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="5"/>
+      <c r="D26" s="7"/>
       <c r="E26" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B27" s="5"/>
+      <c r="B27" s="7"/>
       <c r="C27" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="5"/>
+      <c r="D27" s="7"/>
       <c r="E27" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="7" t="s">
         <v>76</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="5"/>
+      <c r="D28" s="7"/>
       <c r="E28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B29" s="5"/>
+      <c r="B29" s="7"/>
       <c r="C29" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="5"/>
+      <c r="D29" s="7"/>
       <c r="E29" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B30" s="5"/>
+      <c r="B30" s="7"/>
       <c r="C30" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="5"/>
+      <c r="D30" s="7"/>
       <c r="E30" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="7" t="s">
         <v>78</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="7" t="s">
         <v>81</v>
       </c>
       <c r="E31" t="s">
@@ -1241,97 +1252,97 @@
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B32" s="5"/>
+      <c r="B32" s="7"/>
       <c r="C32" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="5"/>
+      <c r="D32" s="7"/>
       <c r="E32" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B33" s="5"/>
+      <c r="B33" s="7"/>
       <c r="C33" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="5"/>
+      <c r="D33" s="7"/>
       <c r="E33" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="7" t="s">
         <v>79</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="5"/>
+      <c r="D34" s="7"/>
       <c r="E34" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B35" s="5"/>
+      <c r="B35" s="7"/>
       <c r="C35" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="5"/>
+      <c r="D35" s="7"/>
       <c r="E35" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B36" s="5"/>
+      <c r="B36" s="7"/>
       <c r="C36" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D36" s="5"/>
+      <c r="D36" s="7"/>
       <c r="E36" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="7" t="s">
         <v>80</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D37" s="5"/>
+      <c r="D37" s="7"/>
       <c r="E37" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B38" s="5"/>
+      <c r="B38" s="7"/>
       <c r="C38" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="5"/>
+      <c r="D38" s="7"/>
       <c r="E38" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B39" s="5"/>
+      <c r="B39" s="7"/>
       <c r="C39" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D39" s="5"/>
+      <c r="D39" s="7"/>
       <c r="E39" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="7" t="s">
         <v>95</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="7" t="s">
         <v>100</v>
       </c>
       <c r="E40" t="s">
@@ -1339,23 +1350,23 @@
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B41" s="5"/>
+      <c r="B41" s="7"/>
       <c r="C41" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="5"/>
+      <c r="D41" s="7"/>
       <c r="E41" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="7" t="s">
         <v>96</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="7" t="s">
         <v>101</v>
       </c>
       <c r="E42" t="s">
@@ -1366,11 +1377,11 @@
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B43" s="5"/>
+      <c r="B43" s="7"/>
       <c r="C43" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D43" s="5"/>
+      <c r="D43" s="7"/>
       <c r="E43" t="s">
         <v>86</v>
       </c>
@@ -1379,13 +1390,13 @@
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="7" t="s">
         <v>97</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E44" t="s">
@@ -1396,11 +1407,11 @@
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B45" s="5"/>
+      <c r="B45" s="7"/>
       <c r="C45" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D45" s="5"/>
+      <c r="D45" s="7"/>
       <c r="E45" t="s">
         <v>88</v>
       </c>
@@ -1409,13 +1420,13 @@
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="7" t="s">
         <v>98</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="7" t="s">
         <v>103</v>
       </c>
       <c r="E46" t="s">
@@ -1423,23 +1434,23 @@
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B47" s="5"/>
+      <c r="B47" s="7"/>
       <c r="C47" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D47" s="5"/>
+      <c r="D47" s="7"/>
       <c r="E47" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="7" t="s">
         <v>99</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="7" t="s">
         <v>104</v>
       </c>
       <c r="E48" t="s">
@@ -1447,11 +1458,11 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B49" s="5"/>
+      <c r="B49" s="7"/>
       <c r="C49" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D49" s="5"/>
+      <c r="D49" s="7"/>
       <c r="E49" t="s">
         <v>92</v>
       </c>
@@ -1463,7 +1474,7 @@
       <c r="C50" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="7" t="s">
         <v>107</v>
       </c>
       <c r="E50" t="s">
@@ -1477,7 +1488,7 @@
       <c r="C51" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D51" s="5"/>
+      <c r="D51" s="7"/>
       <c r="E51" t="s">
         <v>94</v>
       </c>
@@ -1575,8 +1586,33 @@
         <v>132</v>
       </c>
     </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B60" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E60" t="s">
+        <v>134</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B3:B12"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="D16:D24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="D25:D30"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="D31:D39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B31:B33"/>
     <mergeCell ref="D50:D51"/>
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="B48:B49"/>
@@ -1586,23 +1622,6 @@
     <mergeCell ref="D46:D47"/>
     <mergeCell ref="D48:D49"/>
     <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="D31:D39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="D16:D24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="D25:D30"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B3:B12"/>
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="B16:B18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/肇庆之信遨游动力电池项目IP分配表.xlsx
+++ b/肇庆之信遨游动力电池项目IP分配表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="137">
   <si>
     <t>IP地址划分</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -490,6 +490,14 @@
   </si>
   <si>
     <t>192.168.127.232</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注液触摸屏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.1.247</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -863,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1432,6 +1440,9 @@
       <c r="E46" t="s">
         <v>89</v>
       </c>
+      <c r="F46" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B47" s="7"/>
@@ -1442,6 +1453,9 @@
       <c r="E47" t="s">
         <v>90</v>
       </c>
+      <c r="F47" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B48" s="7" t="s">
@@ -1596,23 +1610,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B3:B12"/>
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="D16:D24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="D25:D30"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="D31:D39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B31:B33"/>
     <mergeCell ref="D50:D51"/>
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="B48:B49"/>
@@ -1622,6 +1619,23 @@
     <mergeCell ref="D46:D47"/>
     <mergeCell ref="D48:D49"/>
     <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="D31:D39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="D16:D24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="D25:D30"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B3:B12"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="B16:B18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/肇庆之信遨游动力电池项目IP分配表.xlsx
+++ b/肇庆之信遨游动力电池项目IP分配表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="139">
   <si>
     <t>IP地址划分</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -498,6 +498,14 @@
   </si>
   <si>
     <t>192.168.1.247</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化成RGV触摸屏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.1.248</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -872,7 +880,7 @@
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1470,8 +1478,11 @@
       <c r="E48" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F48" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B49" s="7"/>
       <c r="C49" s="3" t="s">
         <v>39</v>
@@ -1480,8 +1491,11 @@
       <c r="E49" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F49" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="3" t="s">
         <v>105</v>
       </c>
@@ -1495,7 +1509,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="3" t="s">
         <v>106</v>
       </c>
@@ -1507,7 +1521,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="3" t="s">
         <v>113</v>
       </c>
@@ -1521,7 +1535,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
         <v>114</v>
       </c>
@@ -1535,7 +1549,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="3" t="s">
         <v>115</v>
       </c>
@@ -1549,7 +1563,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="3" t="s">
         <v>116</v>
       </c>
@@ -1563,7 +1577,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="3" t="s">
         <v>117</v>
       </c>
@@ -1577,8 +1591,8 @@
         <v>112</v>
       </c>
     </row>
-    <row r="57" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
         <v>127</v>
       </c>
@@ -1592,7 +1606,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B59" s="4" t="s">
         <v>131</v>
       </c>
@@ -1600,7 +1614,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B60" s="5" t="s">
         <v>133</v>
       </c>
@@ -1610,6 +1624,23 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B3:B12"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="D16:D24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="D25:D30"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="D31:D39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B31:B33"/>
     <mergeCell ref="D50:D51"/>
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="B48:B49"/>
@@ -1619,23 +1650,6 @@
     <mergeCell ref="D46:D47"/>
     <mergeCell ref="D48:D49"/>
     <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="D31:D39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="D16:D24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="D25:D30"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B3:B12"/>
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="B16:B18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
